--- a/model_inputs/financial_reports/imaging/PHC.xlsx
+++ b/model_inputs/financial_reports/imaging/PHC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30F4764-963D-4D06-85D6-F06BB8C9C8C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF6E5BD-7716-411A-B276-3C24EDB56404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,8 +567,8 @@
         <v>1413</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:B5" si="0">C2-D2-E2-F2</f>
-        <v>25953.97000000003</v>
+        <f>C2-D2</f>
+        <v>969751.61</v>
       </c>
       <c r="C2" s="5">
         <v>1304296.26</v>
@@ -583,7 +583,7 @@
         <v>395418.79</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G6" si="1">H2-I2-J2-K2</f>
+        <f>H2-I2</f>
         <v>0</v>
       </c>
       <c r="H2" s="5">
@@ -604,8 +604,8 @@
         <v>1513</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" si="0"/>
-        <v>27416.379999999888</v>
+        <f t="shared" ref="B3:B8" si="0">C3-D3</f>
+        <v>1293842.73</v>
       </c>
       <c r="C3" s="5">
         <v>1609266.61</v>
@@ -620,8 +620,8 @@
         <v>749196.56</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="G3:G8" si="1">H3-I3</f>
+        <v>44000</v>
       </c>
       <c r="H3" s="5">
         <v>352477.24</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>21257.460000000079</v>
+        <v>1129205.3</v>
       </c>
       <c r="C4" s="5">
         <v>1432237.84</v>
@@ -657,8 +657,8 @@
         <v>431405.26</v>
       </c>
       <c r="G4" s="6">
-        <f>H4-I4-J4-K4</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1270804.0399999998</v>
       </c>
       <c r="H4" s="5">
         <v>1570384.63</v>
@@ -679,7 +679,7 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>138107.7699999999</v>
+        <v>1479748.43</v>
       </c>
       <c r="C5" s="5">
         <v>1810358.89</v>
@@ -695,7 +695,7 @@
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>10804.049999999814</v>
+        <v>1270804.0499999998</v>
       </c>
       <c r="H5" s="5">
         <v>1564384.67</v>
@@ -715,8 +715,8 @@
         <v>1813</v>
       </c>
       <c r="B6" s="4">
-        <f>C6-D6-E6-F6</f>
-        <v>36551.739999999874</v>
+        <f t="shared" si="0"/>
+        <v>1213777.1499999999</v>
       </c>
       <c r="C6" s="5">
         <v>1548518.25</v>
@@ -732,7 +732,7 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>12491.14000000013</v>
+        <v>1289491.1400000001</v>
       </c>
       <c r="H6" s="5">
         <v>1585865.34</v>
@@ -752,8 +752,8 @@
         <v>1913</v>
       </c>
       <c r="B7" s="4">
-        <f>C7-D7-E7-F7</f>
-        <v>67123.680000000226</v>
+        <f t="shared" si="0"/>
+        <v>1217143.6800000002</v>
       </c>
       <c r="C7" s="5">
         <v>1557036.04</v>
@@ -768,8 +768,8 @@
         <v>411186.54</v>
       </c>
       <c r="G7" s="6">
-        <f>H7-I7-J7-K7</f>
-        <v>16491.129999999888</v>
+        <f t="shared" si="1"/>
+        <v>1294491.1299999999</v>
       </c>
       <c r="H7" s="5">
         <v>1590877.7</v>
@@ -789,8 +789,8 @@
         <v>2013</v>
       </c>
       <c r="B8" s="4">
-        <f>C8-D8-E8-F8</f>
-        <v>60610.329999999842</v>
+        <f t="shared" si="0"/>
+        <v>1419680.3699999999</v>
       </c>
       <c r="C8" s="5">
         <v>1770656.92</v>
@@ -805,8 +805,8 @@
         <v>644291.30000000005</v>
       </c>
       <c r="G8" s="6">
-        <f>H8-I8-J8-K8</f>
-        <v>39929.14000000013</v>
+        <f t="shared" si="1"/>
+        <v>1317929.1400000001</v>
       </c>
       <c r="H8" s="5">
         <v>1628653.3</v>

--- a/model_inputs/financial_reports/imaging/PHC.xlsx
+++ b/model_inputs/financial_reports/imaging/PHC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF6E5BD-7716-411A-B276-3C24EDB56404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB309124-658A-4D40-ACBE-3361EC8DC877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,8 +567,8 @@
         <v>1413</v>
       </c>
       <c r="B2" s="4">
-        <f>C2-D2</f>
-        <v>969751.61</v>
+        <f>C2-D2-E2</f>
+        <v>421372.76</v>
       </c>
       <c r="C2" s="5">
         <v>1304296.26</v>
@@ -583,7 +583,7 @@
         <v>395418.79</v>
       </c>
       <c r="G2" s="6">
-        <f>H2-I2</f>
+        <f>H2-I2-J2</f>
         <v>0</v>
       </c>
       <c r="H2" s="5">
@@ -604,8 +604,8 @@
         <v>1513</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:B8" si="0">C3-D3</f>
-        <v>1293842.73</v>
+        <f>C3-D3-E3</f>
+        <v>776612.94</v>
       </c>
       <c r="C3" s="5">
         <v>1609266.61</v>
@@ -620,8 +620,8 @@
         <v>749196.56</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G8" si="1">H3-I3</f>
-        <v>44000</v>
+        <f t="shared" ref="G3:G8" si="0">H3-I3-J3</f>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
         <v>352477.24</v>
@@ -641,8 +641,8 @@
         <v>1613</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" si="0"/>
-        <v>1129205.3</v>
+        <f t="shared" ref="B4:B8" si="1">C4-D4-E4</f>
+        <v>452662.72000000009</v>
       </c>
       <c r="C4" s="5">
         <v>1432237.84</v>
@@ -657,8 +657,8 @@
         <v>431405.26</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" si="1"/>
-        <v>1270804.0399999998</v>
+        <f t="shared" si="0"/>
+        <v>579149.01999999979</v>
       </c>
       <c r="H4" s="5">
         <v>1570384.63</v>
@@ -678,8 +678,8 @@
         <v>1713</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" si="0"/>
-        <v>1479748.43</v>
+        <f t="shared" si="1"/>
+        <v>722978.54999999993</v>
       </c>
       <c r="C5" s="5">
         <v>1810358.89</v>
@@ -694,8 +694,8 @@
         <v>584870.78</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="1"/>
-        <v>1270804.0499999998</v>
+        <f t="shared" si="0"/>
+        <v>580804.04999999981</v>
       </c>
       <c r="H5" s="5">
         <v>1564384.67</v>
@@ -715,8 +715,8 @@
         <v>1813</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" si="0"/>
-        <v>1213777.1499999999</v>
+        <f t="shared" si="1"/>
+        <v>469574.11999999988</v>
       </c>
       <c r="C6" s="5">
         <v>1548518.25</v>
@@ -731,8 +731,8 @@
         <v>433022.38</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="1"/>
-        <v>1289491.1400000001</v>
+        <f t="shared" si="0"/>
+        <v>582491.14000000013</v>
       </c>
       <c r="H6" s="5">
         <v>1585865.34</v>
@@ -752,8 +752,8 @@
         <v>1913</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" si="0"/>
-        <v>1217143.6800000002</v>
+        <f t="shared" si="1"/>
+        <v>478310.2200000002</v>
       </c>
       <c r="C7" s="5">
         <v>1557036.04</v>
@@ -768,8 +768,8 @@
         <v>411186.54</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="1"/>
-        <v>1294491.1299999999</v>
+        <f t="shared" si="0"/>
+        <v>581491.12999999989</v>
       </c>
       <c r="H7" s="5">
         <v>1590877.7</v>
@@ -789,8 +789,8 @@
         <v>2013</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" si="0"/>
-        <v>1419680.3699999999</v>
+        <f t="shared" si="1"/>
+        <v>704901.62999999989</v>
       </c>
       <c r="C8" s="5">
         <v>1770656.92</v>
@@ -805,8 +805,8 @@
         <v>644291.30000000005</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>1317929.1400000001</v>
+        <f t="shared" si="0"/>
+        <v>604929.14000000013</v>
       </c>
       <c r="H8" s="5">
         <v>1628653.3</v>
